--- a/SendMail/SendMail/テスト仕様書_長谷川心.xlsx
+++ b/SendMail/SendMail/テスト仕様書_長谷川心.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA3F9C-1C1E-4E59-BB76-81406CBF6848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7DE4D-6FA4-4965-9B41-C5C2B5C3231F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/SendMail/SendMail/テスト仕様書_長谷川心.xlsx
+++ b/SendMail/SendMail/テスト仕様書_長谷川心.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziund\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7DE4D-6FA4-4965-9B41-C5C2B5C3231F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B88701-F4EA-4E9F-AE9A-ED268F38B6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1526,11 +1526,15 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19">
+        <v>44494</v>
+      </c>
       <c r="AA2" t="s">
         <v>33</v>
       </c>
@@ -1548,11 +1552,15 @@
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="16">
+        <v>44505</v>
+      </c>
       <c r="AA3" t="s">
         <v>34</v>
       </c>
@@ -1679,9 +1687,7 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
@@ -1811,9 +1817,15 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="20"/>
+      <c r="F16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="20">
+        <v>44505</v>
+      </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
